--- a/Python codes/Sweeps/Simulations.xlsx
+++ b/Python codes/Sweeps/Simulations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edgar/Documents/DCL-DataAnalysis/Python codes/Sweeps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00FD514-0CAA-3743-8C83-EC154A05B521}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AA074B-5814-384C-8462-DC838BDCD2B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{E6179CFC-4F9F-FD45-820F-78A560C2F4A8}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>alpha</t>
   </si>
   <si>
-    <t>No. Dyads</t>
-  </si>
-  <si>
     <t>w_estimated</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>alpha_error</t>
+  </si>
+  <si>
+    <t>Dyads</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A099DD-6248-884F-82E5-C5ED2DE1303F}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -410,25 +412,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -467,7 +469,7 @@
         <v>1.0377510000000001</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D36" si="0">+(B3-C3)^2</f>
+        <f t="shared" ref="D3:D41" si="0">+(B3-C3)^2</f>
         <v>1.4251380010000068E-3</v>
       </c>
       <c r="E3">
@@ -477,7 +479,7 @@
         <v>200</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G36" si="1">+(E3-F3)^2</f>
+        <f t="shared" ref="G3:G41" si="1">+(E3-F3)^2</f>
         <v>2500</v>
       </c>
     </row>
@@ -563,8 +565,22 @@
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7">
+        <v>0.95164000000000004</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2.338689599999996E-3</v>
+      </c>
       <c r="E7">
         <v>150</v>
+      </c>
+      <c r="F7">
+        <v>33.287370000000003</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>13621.838001516897</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -574,8 +590,22 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>1.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
       <c r="E8">
         <v>150</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -585,8 +615,22 @@
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9">
+        <v>1.5</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
       <c r="E9">
         <v>150</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -596,8 +640,22 @@
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="C10">
+        <v>1.065318</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>4.2664411239999979E-3</v>
+      </c>
       <c r="E10">
         <v>150</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -607,8 +665,22 @@
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11">
+        <v>1.5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
       <c r="E11">
         <v>150</v>
+      </c>
+      <c r="F11">
+        <v>41.50188</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>11771.8420435344</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -743,8 +815,22 @@
       <c r="B17">
         <v>1</v>
       </c>
+      <c r="C17">
+        <v>0.94305000000000005</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>3.2433024999999937E-3</v>
+      </c>
       <c r="E17">
         <v>150</v>
+      </c>
+      <c r="F17">
+        <v>61.3643</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>7856.2873144900004</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -754,8 +840,22 @@
       <c r="B18">
         <v>1</v>
       </c>
+      <c r="C18">
+        <v>0.92301699999999998</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>5.9263822890000036E-3</v>
+      </c>
       <c r="E18">
         <v>150</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -765,8 +865,22 @@
       <c r="B19">
         <v>1</v>
       </c>
+      <c r="C19">
+        <v>0.96575999999999995</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1.1723776000000033E-3</v>
+      </c>
       <c r="E19">
         <v>150</v>
+      </c>
+      <c r="F19">
+        <v>64.906350000000003</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>7240.9292703224992</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -776,8 +890,22 @@
       <c r="B20">
         <v>1</v>
       </c>
+      <c r="C20">
+        <v>0.97262999999999999</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>7.4911690000000028E-4</v>
+      </c>
       <c r="E20">
         <v>150</v>
+      </c>
+      <c r="F20">
+        <v>35.083378000000003</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>13205.830011890881</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -787,8 +915,22 @@
       <c r="B21">
         <v>1</v>
       </c>
+      <c r="C21">
+        <v>1.1369880000000001</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1.8765712144000031E-2</v>
+      </c>
       <c r="E21">
         <v>150</v>
+      </c>
+      <c r="F21">
+        <v>156.41979799999999</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>41.213806360803822</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -923,8 +1065,22 @@
       <c r="B27">
         <v>1</v>
       </c>
+      <c r="C27">
+        <v>0.99097900000000005</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>8.1378440999999016E-5</v>
+      </c>
       <c r="E27">
         <v>150</v>
+      </c>
+      <c r="F27">
+        <v>57.961148999999999</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>8471.1500934001997</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -934,8 +1090,22 @@
       <c r="B28">
         <v>1</v>
       </c>
+      <c r="C28">
+        <v>0.97009699999999999</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>8.9418940900000074E-4</v>
+      </c>
       <c r="E28">
         <v>150</v>
+      </c>
+      <c r="F28">
+        <v>54.929512000000003</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>9038.3976885581433</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -945,8 +1115,22 @@
       <c r="B29">
         <v>1</v>
       </c>
+      <c r="C29">
+        <v>0.966669</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1.110955561E-3</v>
+      </c>
       <c r="E29">
         <v>150</v>
+      </c>
+      <c r="F29">
+        <v>41.569701000000002</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>11757.129741229399</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -956,8 +1140,22 @@
       <c r="B30">
         <v>1</v>
       </c>
+      <c r="C30">
+        <v>1.0144979999999999</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>2.1019200399999711E-4</v>
+      </c>
       <c r="E30">
         <v>150</v>
+      </c>
+      <c r="F30">
+        <v>200</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -967,8 +1165,22 @@
       <c r="B31">
         <v>1</v>
       </c>
+      <c r="C31">
+        <v>0.99683100000000002</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1.0042560999999857E-5</v>
+      </c>
       <c r="E31">
         <v>150</v>
+      </c>
+      <c r="F31">
+        <v>50.211931999999997</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>9957.6585151726267</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1103,8 +1315,22 @@
       <c r="B37">
         <v>1</v>
       </c>
+      <c r="C37">
+        <v>0.93769000000000002</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>3.8825360999999972E-3</v>
+      </c>
       <c r="E37">
         <v>150</v>
+      </c>
+      <c r="F37">
+        <v>173.51494400000001</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>552.95259132313663</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1114,8 +1340,22 @@
       <c r="B38">
         <v>1</v>
       </c>
+      <c r="C38">
+        <v>0.87394799999999995</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>1.5889106704000015E-2</v>
+      </c>
       <c r="E38">
         <v>150</v>
+      </c>
+      <c r="F38">
+        <v>139.48004499999999</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>110.66945320202521</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1125,8 +1365,22 @@
       <c r="B39">
         <v>1</v>
       </c>
+      <c r="C39">
+        <v>0.91078700000000001</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>7.958959368999997E-3</v>
+      </c>
       <c r="E39">
         <v>150</v>
+      </c>
+      <c r="F39">
+        <v>97.46781</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>2759.6309861960999</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1136,8 +1390,22 @@
       <c r="B40">
         <v>1</v>
       </c>
+      <c r="C40">
+        <v>0.926118</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>5.4585499240000007E-3</v>
+      </c>
       <c r="E40">
         <v>150</v>
+      </c>
+      <c r="F40">
+        <v>66.361309000000006</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>6995.4306321934801</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1147,8 +1415,22 @@
       <c r="B41">
         <v>1</v>
       </c>
+      <c r="C41">
+        <v>0.93422899999999998</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>4.3258244410000028E-3</v>
+      </c>
       <c r="E41">
         <v>150</v>
+      </c>
+      <c r="F41">
+        <v>95.937661000000006</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>2922.7364981509204</v>
       </c>
     </row>
   </sheetData>

--- a/Python codes/Sweeps/Simulations.xlsx
+++ b/Python codes/Sweeps/Simulations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edgar/Documents/DCL-DataAnalysis/Python codes/Sweeps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AA074B-5814-384C-8462-DC838BDCD2B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C92372-6A76-654E-A1CE-D44291B0BE4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{E6179CFC-4F9F-FD45-820F-78A560C2F4A8}"/>
   </bookViews>
@@ -399,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A099DD-6248-884F-82E5-C5ED2DE1303F}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,7 +444,7 @@
         <v>0.84255400000000003</v>
       </c>
       <c r="D2">
-        <f>+(B2-C2)^2</f>
+        <f>+((B2-C2)/B2)^2</f>
         <v>2.4789242915999991E-2</v>
       </c>
       <c r="E2">
@@ -454,8 +454,8 @@
         <v>200</v>
       </c>
       <c r="G2">
-        <f>+(E2-F2)^2</f>
-        <v>2500</v>
+        <f>+((E2-F2)/E2)^2</f>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -469,7 +469,7 @@
         <v>1.0377510000000001</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D41" si="0">+(B3-C3)^2</f>
+        <f t="shared" ref="D3:D41" si="0">+((B3-C3)/B3)^2</f>
         <v>1.4251380010000068E-3</v>
       </c>
       <c r="E3">
@@ -479,8 +479,8 @@
         <v>200</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G41" si="1">+(E3-F3)^2</f>
-        <v>2500</v>
+        <f t="shared" ref="G3:G41" si="1">+((E3-F3)/E3)^2</f>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -505,7 +505,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -530,7 +530,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>11787.2147327236</v>
+        <v>0.52387621034327103</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -555,7 +555,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -580,7 +580,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>13621.838001516897</v>
+        <v>0.60541502228963984</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -605,7 +605,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -630,7 +630,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -655,7 +655,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -680,7 +680,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>11771.8420435344</v>
+        <v>0.52319297971264001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -705,7 +705,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>9208.3841660262769</v>
+        <v>0.40926151849005671</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -730,7 +730,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>11029.099581030399</v>
+        <v>0.49018220360135106</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -755,7 +755,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>6507.7040783969651</v>
+        <v>0.2892312923731985</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -780,7 +780,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -805,7 +805,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>14525.474626892328</v>
+        <v>0.64557665008410348</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -830,7 +830,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>7856.2873144900004</v>
+        <v>0.34916832508844442</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -855,7 +855,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -880,7 +880,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>7240.9292703224992</v>
+        <v>0.32181907868100001</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -905,7 +905,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>13205.830011890881</v>
+        <v>0.58692577830626147</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -930,7 +930,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>41.213806360803822</v>
+        <v>1.8317247271468365E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -955,7 +955,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -980,7 +980,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>2498.7414584325693</v>
+        <v>0.11105517593033641</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>1067.0507657420494</v>
+        <v>4.7424478477424425E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>13773.454334050321</v>
+        <v>0.61215352595779193</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>211.62140606736898</v>
+        <v>9.4053958252163991E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>8471.1500934001997</v>
+        <v>0.37649555970667553</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>9038.3976885581433</v>
+        <v>0.40170656393591747</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>11757.129741229399</v>
+        <v>0.52253909961019551</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>9957.6585151726267</v>
+        <v>0.44256260067433884</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>5892.3544417589292</v>
+        <v>0.26188241963373021</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>7471.9360098103207</v>
+        <v>0.33208604488045868</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>7893.7419647732895</v>
+        <v>0.35083297621214615</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>5770.252486503683</v>
+        <v>0.2564556660668304</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>1684.3319974969963</v>
+        <v>7.485919988875539E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>552.95259132313663</v>
+        <v>2.4575670725472738E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>110.66945320202521</v>
+        <v>4.9186423645344538E-3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
-        <v>2759.6309861960999</v>
+        <v>0.12265026605315998</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>6995.4306321934801</v>
+        <v>0.31090802809748797</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
-        <v>2922.7364981509204</v>
+        <v>0.12989939991781868</v>
       </c>
     </row>
   </sheetData>

--- a/Python codes/Sweeps/Simulations.xlsx
+++ b/Python codes/Sweeps/Simulations.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Edgar/Documents/DCL-DataAnalysis/Python codes/Sweeps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar.andrade\Documents\DCL-DataAnalysis\Python codes\Sweeps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C92372-6A76-654E-A1CE-D44291B0BE4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{E6179CFC-4F9F-FD45-820F-78A560C2F4A8}"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="25440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -81,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,21 +396,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52A099DD-6248-884F-82E5-C5ED2DE1303F}">
-  <dimension ref="A1:G41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -433,7 +433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -458,7 +458,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -469,7 +469,7 @@
         <v>1.0377510000000001</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D41" si="0">+((B3-C3)/B3)^2</f>
+        <f t="shared" ref="D3:D61" si="0">+((B3-C3)/B3)^2</f>
         <v>1.4251380010000068E-3</v>
       </c>
       <c r="E3">
@@ -479,11 +479,11 @@
         <v>200</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G41" si="1">+((E3-F3)/E3)^2</f>
+        <f t="shared" ref="G3:G61" si="1">+((E3-F3)/E3)^2</f>
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -508,7 +508,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -533,7 +533,7 @@
         <v>0.52387621034327103</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -558,7 +558,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -569,7 +569,7 @@
         <v>0.95164000000000004</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f>+((B7-C7)/B7)^2</f>
         <v>2.338689599999996E-3</v>
       </c>
       <c r="E7">
@@ -583,7 +583,7 @@
         <v>0.60541502228963984</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -608,7 +608,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -633,7 +633,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -658,7 +658,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -683,7 +683,7 @@
         <v>0.52319297971264001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -708,7 +708,7 @@
         <v>0.40926151849005671</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -733,7 +733,7 @@
         <v>0.49018220360135106</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -758,7 +758,7 @@
         <v>0.2892312923731985</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -783,7 +783,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -808,7 +808,7 @@
         <v>0.64557665008410348</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -833,7 +833,7 @@
         <v>0.34916832508844442</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -858,7 +858,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -883,7 +883,7 @@
         <v>0.32181907868100001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -908,7 +908,7 @@
         <v>0.58692577830626147</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -933,7 +933,7 @@
         <v>1.8317247271468365E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -958,7 +958,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10</v>
       </c>
@@ -983,7 +983,7 @@
         <v>0.11105517593033641</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>4.7424478477424425E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>0.61215352595779193</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>9.4053958252163991E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0.37649555970667553</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>0.40170656393591747</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>0.52253909961019551</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>0.44256260067433884</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>50</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>0.26188241963373021</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>50</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>0.33208604488045868</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>50</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>0.35083297621214615</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>50</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>0.2564556660668304</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>50</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>7.485919988875539E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>50</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>2.4575670725472738E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>50</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>4.9186423645344538E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>50</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>0.12265026605315998</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>50</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>0.31090802809748797</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>50</v>
       </c>
@@ -1433,7 +1433,508 @@
         <v>0.12989939991781868</v>
       </c>
     </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>100</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0.932006</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>4.6231840359999997E-3</v>
+      </c>
+      <c r="E42">
+        <v>150</v>
+      </c>
+      <c r="F42">
+        <v>67.742427000000006</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>0.30072481403779239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>100</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0.92966599999999999</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>4.9468715560000015E-3</v>
+      </c>
+      <c r="E43">
+        <v>150</v>
+      </c>
+      <c r="F43">
+        <v>94.140469999999993</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>0.13867942630315114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>100</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.95377659999999997</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>2.1366027075600024E-3</v>
+      </c>
+      <c r="E44">
+        <v>150</v>
+      </c>
+      <c r="F44">
+        <v>92.9698353</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>0.14455287492040561</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>100</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0.94735499999999995</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>2.7714960250000056E-3</v>
+      </c>
+      <c r="E45">
+        <v>150</v>
+      </c>
+      <c r="F45">
+        <v>73.019755000000004</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>0.26337591645600111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>100</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0.92136090000000004</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>6.184108048809994E-3</v>
+      </c>
+      <c r="E46">
+        <v>150</v>
+      </c>
+      <c r="F46">
+        <v>78.029322899999997</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>0.2302123716547762</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>100</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0.92127510000000001</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>6.1976098800099978E-3</v>
+      </c>
+      <c r="E47">
+        <v>150</v>
+      </c>
+      <c r="F47">
+        <v>92.911694499999996</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>0.14484776110494801</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>100</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0.88776699999999997</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>1.2596246289000006E-2</v>
+      </c>
+      <c r="E48">
+        <v>150</v>
+      </c>
+      <c r="F48">
+        <v>88.083037000000004</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>0.17038712476192747</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>100</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0.97046290000000002</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>8.7244027640999899E-4</v>
+      </c>
+      <c r="E49">
+        <v>150</v>
+      </c>
+      <c r="F49">
+        <v>82.456881899999999</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0.20275879122980214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>100</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0.96936460000000002</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>9.3852773315999873E-4</v>
+      </c>
+      <c r="E50">
+        <v>150</v>
+      </c>
+      <c r="F50">
+        <v>67.368747400000004</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>0.30346328472200029</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>100</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0.9873016</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>1.6124936255999995E-4</v>
+      </c>
+      <c r="E51">
+        <v>150</v>
+      </c>
+      <c r="F51">
+        <v>67.588863500000002</v>
+      </c>
+      <c r="G51">
+        <f>+((E51-F51)/E51)^2</f>
+        <v>0.30184868529873915</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>200</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0.91117519999999996</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>7.8898450950400066E-3</v>
+      </c>
+      <c r="E52">
+        <v>150</v>
+      </c>
+      <c r="F52">
+        <v>107.9665899</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>7.8524780650434736E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>200</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0.94738009999999995</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>2.7688538760100054E-3</v>
+      </c>
+      <c r="E53">
+        <v>150</v>
+      </c>
+      <c r="F53">
+        <v>83.852592200000004</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0.19446575816264447</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>200</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0.93488499999999997</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>4.2399632250000041E-3</v>
+      </c>
+      <c r="E54">
+        <v>150</v>
+      </c>
+      <c r="F54">
+        <v>89.287526999999997</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>0.16382241679003243</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>200</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0.94287160000000003</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>3.2636540865599965E-3</v>
+      </c>
+      <c r="E55">
+        <v>150</v>
+      </c>
+      <c r="F55">
+        <v>102.3666618</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0.10084155147002574</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>200</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0.92637689999999995</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>5.4203608536100081E-3</v>
+      </c>
+      <c r="E56">
+        <v>150</v>
+      </c>
+      <c r="F56">
+        <v>76.142577000000003</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>0.24244084143115241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>200</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0.94538270000000002</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>2.9830494592899977E-3</v>
+      </c>
+      <c r="E57">
+        <v>150</v>
+      </c>
+      <c r="F57">
+        <v>90.643141600000007</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>0.15658829507189556</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>200</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>0.9268826</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>5.3461541827599995E-3</v>
+      </c>
+      <c r="E58">
+        <v>150</v>
+      </c>
+      <c r="F58">
+        <v>78.750212899999994</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>0.22562365163534789</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>200</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0.93525659999999999</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>4.1917078435600007E-3</v>
+      </c>
+      <c r="E59">
+        <v>150</v>
+      </c>
+      <c r="F59">
+        <v>70.287886400000005</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0.28240093575908021</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>200</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0.93057210000000001</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>4.8202332984099983E-3</v>
+      </c>
+      <c r="E60">
+        <v>150</v>
+      </c>
+      <c r="F60">
+        <v>97.592914699999994</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>0.12206678176184342</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>200</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>0.96528029999999998</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>1.2054575680900013E-3</v>
+      </c>
+      <c r="E61">
+        <v>150</v>
+      </c>
+      <c r="F61">
+        <v>82.804327299999997</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>0.20067815242691228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>